--- a/tools/Excel2Json/sheet/Unit.xlsx
+++ b/tools/Excel2Json/sheet/Unit.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
   <si>
     <t>配置规则</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>[[1024]]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0]</t>
   </si>
   <si>
     <t>character_bomberman</t>
@@ -329,10 +332,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -357,20 +360,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -379,30 +374,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,14 +389,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -439,25 +411,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,9 +442,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,8 +457,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,175 +540,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,17 +802,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -835,6 +827,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -850,17 +857,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,145 +873,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1429,7 +1432,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2251,7 +2254,7 @@
         <v>83</v>
       </c>
       <c r="M28" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2262,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2289,7 +2292,7 @@
         <v>83</v>
       </c>
       <c r="M29" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2300,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2327,7 +2330,7 @@
         <v>83</v>
       </c>
       <c r="M30" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2338,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2365,7 +2368,7 @@
         <v>83</v>
       </c>
       <c r="M31" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2376,7 +2379,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -2403,7 +2406,7 @@
         <v>83</v>
       </c>
       <c r="M32" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2414,7 +2417,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2441,7 +2444,7 @@
         <v>83</v>
       </c>
       <c r="M33" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2452,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2479,7 +2482,7 @@
         <v>83</v>
       </c>
       <c r="M34" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
